--- a/assets/resources/config/resourceConfig.xlsx
+++ b/assets/resources/config/resourceConfig.xlsx
@@ -754,12 +754,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1292,7 +1289,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1353,7 +1350,7 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/assets/resources/config/resourceConfig.xlsx
+++ b/assets/resources/config/resourceConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -58,7 +58,9 @@
   <si>
     <t>config/resourceConfig
 config/serverConfig
-config/gameConfig</t>
+config/gameConfig
+config/weaponConfig
+config/viewConfig</t>
   </si>
   <si>
     <t>loadingScene</t>
@@ -82,10 +84,6 @@
 icon/knifeIcon
 icon/bladeIcon
 icon/swordIcon</t>
-  </si>
-  <si>
-    <t>config/weaponConfig
-config/viewConfig</t>
   </si>
   <si>
     <t>battleScene</t>
@@ -1289,7 +1287,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1322,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="42" spans="1:6">
+    <row r="2" ht="70" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1362,71 +1360,69 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" ht="42" spans="1:4">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:4">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:4">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:4">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" ht="42" spans="1:4">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resources/config/resourceConfig.xlsx
+++ b/assets/resources/config/resourceConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -86,6 +86,9 @@
 icon/swordIcon</t>
   </si>
   <si>
+    <t>BG/loadBG2</t>
+  </si>
+  <si>
     <t>battleScene</t>
   </si>
   <si>
@@ -93,10 +96,6 @@
   </si>
   <si>
     <t>blade</t>
-  </si>
-  <si>
-    <t>audio/bladeAttack
-audio/bladeHit</t>
   </si>
   <si>
     <t>role/man/blade/action
@@ -115,20 +114,12 @@
     <t>spear</t>
   </si>
   <si>
-    <t>audio/spearAttack
-audio/spearHit</t>
-  </si>
-  <si>
     <t>role/man/spear/action
 role/man/spear/state
 role/man/spear/attack</t>
   </si>
   <si>
     <t>bow</t>
-  </si>
-  <si>
-    <t>audio/bowAttack
-audio/bowHit</t>
   </si>
   <si>
     <t>role/woman/bow/action
@@ -1287,13 +1278,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B7" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="45.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="17.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="33.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="18.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="36.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="21.9090909090909" customWidth="1"/>
@@ -1352,7 +1343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="70" spans="1:5">
+    <row r="5" ht="70" spans="1:6">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1361,22 +1352,23 @@
         <v>15</v>
       </c>
       <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="42" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1385,9 +1377,7 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1396,31 +1386,25 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:4">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" ht="42" spans="1:4">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
